--- a/documentation/Auto-Eval-ASI2-r1.xlsx
+++ b/documentation/Auto-Eval-ASI2-r1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73910852-B834-4232-88E9-1B5C3BF40FE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D5E7E4-4A20-46CE-BA5E-9C6FF0489EDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,10 +913,10 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>9</v>
@@ -950,10 +950,10 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
         <v>10</v>
@@ -987,10 +987,10 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
         <v>9</v>
@@ -1024,10 +1024,10 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
         <v>10</v>
@@ -1042,7 +1042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
@@ -1061,10 +1061,10 @@
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -1079,7 +1079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
@@ -1098,10 +1098,10 @@
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
         <v>10</v>
@@ -1116,7 +1116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
@@ -1135,10 +1135,10 @@
         <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
         <v>9</v>
@@ -1172,10 +1172,10 @@
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
         <v>9</v>
@@ -1209,10 +1209,10 @@
         <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
         <v>9</v>
@@ -1227,7 +1227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
@@ -1246,10 +1246,10 @@
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J16" t="s">
         <v>10</v>
@@ -1283,10 +1283,10 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -1320,10 +1320,10 @@
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J18" t="s">
         <v>9</v>
@@ -1338,7 +1338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
@@ -1357,10 +1357,10 @@
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
         <v>10</v>
@@ -1375,7 +1375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
@@ -1394,10 +1394,10 @@
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
@@ -1431,10 +1431,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
         <v>10</v>
@@ -1468,10 +1468,10 @@
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
         <v>10</v>
@@ -1486,7 +1486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
@@ -1505,10 +1505,10 @@
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J23" t="s">
         <v>13</v>
@@ -1523,7 +1523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
@@ -1542,10 +1542,10 @@
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J24" t="s">
         <v>13</v>
@@ -1596,10 +1596,10 @@
         <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J26" t="s">
         <v>10</v>
@@ -1614,7 +1614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
@@ -1633,10 +1633,10 @@
         <v>9</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J27" t="s">
         <v>13</v>
@@ -1670,10 +1670,10 @@
         <v>9</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J28" t="s">
         <v>9</v>
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J29" t="s">
         <v>9</v>
@@ -1744,10 +1744,10 @@
         <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1781,10 +1781,10 @@
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1818,10 +1818,10 @@
         <v>9</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
         <v>10</v>
@@ -1855,10 +1855,10 @@
         <v>9</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J33" t="s">
         <v>10</v>
@@ -1873,7 +1873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4" t="s">
@@ -1892,10 +1892,10 @@
         <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
         <v>10</v>
@@ -1910,7 +1910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4" t="s">
@@ -1929,10 +1929,10 @@
         <v>9</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1966,10 +1966,10 @@
         <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1984,7 +1984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
@@ -2003,10 +2003,10 @@
         <v>9</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
         <v>10</v>
@@ -2040,10 +2040,10 @@
         <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -2077,10 +2077,10 @@
         <v>9</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -2095,7 +2095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
@@ -2114,10 +2114,10 @@
         <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
